--- a/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
+++ b/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
@@ -138,7 +138,7 @@
     <t>{.competitionType}</t>
   </si>
   <si>
-    <t>{.isSingle}</t>
+    <t>{.singleRace}</t>
   </si>
   <si>
     <t>{.organizer}</t>

--- a/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
+++ b/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t/>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>{.organizer}</t>
+  </si>
+  <si>
+    <t>{.competitionTime}</t>
+  </si>
+  <si>
+    <t>{.teachingHour}</t>
   </si>
   <si>
     <t>{.responsiblePersonName}</t>
@@ -754,7 +760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1041,9 +1047,7 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
   </a:extLst>
 </a:theme>
 </file>
@@ -1434,113 +1438,117 @@
       <c r="E5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="40" t="s"/>
-      <c r="G5" s="40" t="s"/>
-      <c r="H5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="H5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="I5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="J5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="K5" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="L5" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="M5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="N5" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="O5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="P5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="Q5" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="R5" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="S5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="T5" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="U5" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="V5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="W5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="X5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="Y5" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="Z5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="42" t="s">
+      <c r="AA5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="AD5" s="40" t="s">
+      <c r="AB5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AE5" s="40" t="s">
+      <c r="AC5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AF5" s="40" t="s">
+      <c r="AD5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AG5" s="40" t="s">
+      <c r="AE5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AH5" s="40" t="s">
+      <c r="AF5" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AI5" s="40" t="s">
+      <c r="AG5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AJ5" s="40" t="s">
+      <c r="AH5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="AK5" s="40" t="s">
+      <c r="AI5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="AL5" s="40" t="s">
+      <c r="AJ5" s="40" t="s">
         <v>73</v>
       </c>
+      <c r="AK5" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL5" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="AM5" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN5" s="40" t="s"/>
       <c r="AO5" s="40" t="s"/>
       <c r="AP5" s="40" t="s"/>
       <c r="AQ5" s="40" t="s"/>
       <c r="AR5" s="43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AS5" s="44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="20" customHeight="true">
@@ -9633,7 +9641,7 @@
     </row>
     <row r="178" spans="1:45">
       <c r="A178" s="63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B178" s="63" t="s"/>
       <c r="C178" s="63" t="s"/>
@@ -9682,7 +9690,7 @@
     </row>
     <row r="179" spans="1:45">
       <c r="A179" s="64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B179" s="64" t="s"/>
       <c r="C179" s="64" t="s"/>

--- a/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
+++ b/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t/>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>{.huojiangNumber14}</t>
+  </si>
+  <si>
+    <t>{.repeatDetail}</t>
   </si>
   <si>
     <t>{.totalHuojiangCount}</t>
@@ -1543,12 +1546,14 @@
       <c r="AN5" s="40" t="s"/>
       <c r="AO5" s="40" t="s"/>
       <c r="AP5" s="40" t="s"/>
-      <c r="AQ5" s="40" t="s"/>
+      <c r="AQ5" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="AR5" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AS5" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="20" customHeight="true">
@@ -9641,7 +9646,7 @@
     </row>
     <row r="178" spans="1:45">
       <c r="A178" s="63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B178" s="63" t="s"/>
       <c r="C178" s="63" t="s"/>
@@ -9690,7 +9695,7 @@
     </row>
     <row r="179" spans="1:45">
       <c r="A179" s="64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B179" s="64" t="s"/>
       <c r="C179" s="64" t="s"/>

--- a/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
+++ b/dcims-service/src/main/resources/excel/获奖汇总表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t/>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>{.huojiangNumber14}</t>
+  </si>
+  <si>
+    <t>{.innerStudentCount}</t>
   </si>
   <si>
     <t>{.repeatDetail}</t>
@@ -1544,16 +1547,18 @@
         <v>76</v>
       </c>
       <c r="AN5" s="40" t="s"/>
-      <c r="AO5" s="40" t="s"/>
+      <c r="AO5" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="AP5" s="40" t="s"/>
       <c r="AQ5" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR5" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS5" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="20" customHeight="true">
@@ -9646,7 +9651,7 @@
     </row>
     <row r="178" spans="1:45">
       <c r="A178" s="63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B178" s="63" t="s"/>
       <c r="C178" s="63" t="s"/>
@@ -9695,7 +9700,7 @@
     </row>
     <row r="179" spans="1:45">
       <c r="A179" s="64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B179" s="64" t="s"/>
       <c r="C179" s="64" t="s"/>
